--- a/src/test/test_result/SimpleArrayDict.xlsx
+++ b/src/test/test_result/SimpleArrayDict.xlsx
@@ -126,16 +126,14 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>["key1","key2"]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>C:\Users\rpa-dev\Desktop\FPT-Thang\ロボソース\AutomationTestRobot\test\SimpleArrayDict.xaml</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
+    <t>["key1","key2"]</t>
+  </si>
+  <si>
     <t>["item1","item2"]</t>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -553,7 +551,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -580,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -662,7 +660,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -795,7 +793,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="8" t="b">
         <v>1</v>
